--- a/Rencana Kegiatan.xlsx
+++ b/Rencana Kegiatan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013CD731-743F-40E2-BA2A-FBF1B8D903A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE2D721-2BF3-4C67-951F-1DA8E4DD9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA06E77E-74AA-4056-9469-CA80E49C7BB1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +121,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,9 +184,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -182,16 +191,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,6 +212,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -222,7 +243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -518,391 +539,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABA9B09-F39F-4468-8124-986F16ECD6B2}">
-  <dimension ref="A3:X16"/>
+  <dimension ref="A3:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="3" max="22" width="3.88671875" customWidth="1"/>
-    <col min="23" max="23" width="4.21875" customWidth="1"/>
-    <col min="24" max="24" width="3.5546875" customWidth="1"/>
+    <col min="3" max="35" width="4.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
-        <v>44652</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14">
-        <v>44682</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="12">
-        <v>44713</v>
-      </c>
+      <c r="C3" s="13">
+        <v>44562</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13">
+        <v>44593</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13">
+        <v>44621</v>
+      </c>
+      <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12">
+      <c r="N3" s="13">
+        <v>44652</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="13">
+        <v>44682</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="11">
+        <v>44713</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="11">
         <v>44743</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="12">
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="11">
         <v>44774</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="14">
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="13">
         <v>44805</v>
       </c>
-      <c r="X3" s="15"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="8" t="s">
+      <c r="AI3" s="14"/>
+    </row>
+    <row r="4" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="J4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="K4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="L4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="M4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="N4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="O4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="P4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="Q4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="R4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="S4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="T4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="U4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="V4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="W4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="X4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="Y4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="Z4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AB4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+    </row>
+    <row r="6" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+    </row>
+    <row r="7" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+    </row>
+    <row r="11" spans="1:35" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+    </row>
+    <row r="12" spans="1:35" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+    </row>
+    <row r="13" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -910,29 +1067,40 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+    </row>
+    <row r="14" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -941,68 +1109,104 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+    </row>
+    <row r="15" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+    </row>
+    <row r="16" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:X3"/>
+  <mergeCells count="11">
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
